--- a/SchedulingData/dynamic10/pso/scheduling2_16.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>200.82</v>
+        <v>239.62</v>
       </c>
       <c r="D2" t="n">
-        <v>256.42</v>
+        <v>274.68</v>
       </c>
       <c r="E2" t="n">
-        <v>13.908</v>
+        <v>12.192</v>
       </c>
     </row>
     <row r="3">
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>256.42</v>
+        <v>227.62</v>
       </c>
       <c r="D3" t="n">
-        <v>315.64</v>
+        <v>282.02</v>
       </c>
       <c r="E3" t="n">
-        <v>11.576</v>
+        <v>15.288</v>
       </c>
     </row>
     <row r="4">
@@ -504,17 +504,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>261.76</v>
+        <v>230.98</v>
       </c>
       <c r="D4" t="n">
-        <v>294.66</v>
+        <v>270.38</v>
       </c>
       <c r="E4" t="n">
-        <v>13.644</v>
+        <v>15.632</v>
       </c>
     </row>
     <row r="5">
@@ -523,93 +523,93 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>250.36</v>
+        <v>206.26</v>
       </c>
       <c r="D5" t="n">
-        <v>296.92</v>
+        <v>263.62</v>
       </c>
       <c r="E5" t="n">
-        <v>12.968</v>
+        <v>13.288</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>296.92</v>
+        <v>270.38</v>
       </c>
       <c r="D6" t="n">
-        <v>360.58</v>
+        <v>323.42</v>
       </c>
       <c r="E6" t="n">
-        <v>9.692</v>
+        <v>12.928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>241.7</v>
+        <v>274.68</v>
       </c>
       <c r="D7" t="n">
-        <v>296.56</v>
+        <v>324.2</v>
       </c>
       <c r="E7" t="n">
-        <v>14.464</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>242.22</v>
+        <v>203.1</v>
       </c>
       <c r="D8" t="n">
-        <v>276.7</v>
+        <v>265.6</v>
       </c>
       <c r="E8" t="n">
-        <v>13.52</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>252.88</v>
+        <v>282.02</v>
       </c>
       <c r="D9" t="n">
-        <v>316.86</v>
+        <v>347.96</v>
       </c>
       <c r="E9" t="n">
-        <v>12.904</v>
+        <v>11.784</v>
       </c>
     </row>
     <row r="10">
@@ -618,17 +618,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>296.56</v>
+        <v>265.6</v>
       </c>
       <c r="D10" t="n">
-        <v>345.36</v>
+        <v>336.66</v>
       </c>
       <c r="E10" t="n">
-        <v>11.224</v>
+        <v>12.964</v>
       </c>
     </row>
     <row r="11">
@@ -637,36 +637,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>294.66</v>
+        <v>323.42</v>
       </c>
       <c r="D11" t="n">
-        <v>336.88</v>
+        <v>356.42</v>
       </c>
       <c r="E11" t="n">
-        <v>11.052</v>
+        <v>10.768</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>316.86</v>
+        <v>246.58</v>
       </c>
       <c r="D12" t="n">
-        <v>360.62</v>
+        <v>298.6</v>
       </c>
       <c r="E12" t="n">
-        <v>10.148</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="13">
@@ -675,302 +675,340 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>276.7</v>
+        <v>298.6</v>
       </c>
       <c r="D13" t="n">
-        <v>325.02</v>
+        <v>357.46</v>
       </c>
       <c r="E13" t="n">
-        <v>10.308</v>
+        <v>8.064</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>315.64</v>
+        <v>263.62</v>
       </c>
       <c r="D14" t="n">
-        <v>364.84</v>
+        <v>298.1</v>
       </c>
       <c r="E14" t="n">
-        <v>8.276</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>325.02</v>
+        <v>298.1</v>
       </c>
       <c r="D15" t="n">
-        <v>371.36</v>
+        <v>341.8</v>
       </c>
       <c r="E15" t="n">
-        <v>6.804</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>336.88</v>
+        <v>324.2</v>
       </c>
       <c r="D16" t="n">
-        <v>373.52</v>
+        <v>393.06</v>
       </c>
       <c r="E16" t="n">
-        <v>8.028</v>
+        <v>6.584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>345.36</v>
+        <v>347.96</v>
       </c>
       <c r="D17" t="n">
-        <v>405.56</v>
+        <v>399</v>
       </c>
       <c r="E17" t="n">
-        <v>8.804</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>373.52</v>
+        <v>357.46</v>
       </c>
       <c r="D18" t="n">
-        <v>417.82</v>
+        <v>402.76</v>
       </c>
       <c r="E18" t="n">
-        <v>4.728</v>
+        <v>5.644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>405.56</v>
+        <v>356.42</v>
       </c>
       <c r="D19" t="n">
-        <v>443.9</v>
+        <v>409.98</v>
       </c>
       <c r="E19" t="n">
-        <v>6.1</v>
+        <v>8.032</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>360.58</v>
+        <v>393.06</v>
       </c>
       <c r="D20" t="n">
-        <v>406.16</v>
+        <v>437.68</v>
       </c>
       <c r="E20" t="n">
-        <v>7.244</v>
+        <v>4.252</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>443.9</v>
+        <v>409.98</v>
       </c>
       <c r="D21" t="n">
-        <v>492.96</v>
+        <v>472.7</v>
       </c>
       <c r="E21" t="n">
-        <v>2.824</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>360.62</v>
+        <v>399</v>
       </c>
       <c r="D22" t="n">
-        <v>415.04</v>
+        <v>436.7</v>
       </c>
       <c r="E22" t="n">
-        <v>7.816</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>417.82</v>
+        <v>437.68</v>
       </c>
       <c r="D23" t="n">
-        <v>495.22</v>
+        <v>474.24</v>
       </c>
       <c r="E23" t="n">
-        <v>2.088</v>
+        <v>1.236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>406.16</v>
+        <v>474.24</v>
       </c>
       <c r="D24" t="n">
-        <v>448.06</v>
+        <v>548.5700000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>5.164</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>415.04</v>
+        <v>472.7</v>
       </c>
       <c r="D25" t="n">
-        <v>457.86</v>
+        <v>523.48</v>
       </c>
       <c r="E25" t="n">
-        <v>5.164</v>
+        <v>2.932</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>371.36</v>
+        <v>336.66</v>
       </c>
       <c r="D26" t="n">
-        <v>407.62</v>
+        <v>405.94</v>
       </c>
       <c r="E26" t="n">
-        <v>4.308</v>
+        <v>10.156</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>407.62</v>
+        <v>436.7</v>
       </c>
       <c r="D27" t="n">
-        <v>460.22</v>
+        <v>505.6</v>
       </c>
       <c r="E27" t="n">
-        <v>2.188</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>364.84</v>
+        <v>402.76</v>
       </c>
       <c r="D28" t="n">
-        <v>427.24</v>
+        <v>464.66</v>
       </c>
       <c r="E28" t="n">
-        <v>5.636</v>
+        <v>3.524</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>pond62</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>405.94</v>
+      </c>
+      <c r="D29" t="n">
+        <v>487.28</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7.132</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>pond47</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>341.8</v>
+      </c>
+      <c r="D30" t="n">
+        <v>383.7</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5.16</v>
       </c>
     </row>
   </sheetData>
